--- a/contratos/contratos-1-2011.xlsx
+++ b/contratos/contratos-1-2011.xlsx
@@ -463,7 +463,7 @@
     <t>DIAZ JULIA Y DUARTE LAUTARO</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
   </si>
   <si>
     <t>INSTITUTO AUTARQUICO PROVINCIAL DEL SEGURO</t>
@@ -643,208 +643,208 @@
     <t>16</t>
   </si>
   <si>
-    <t>510,00</t>
-  </si>
-  <si>
-    <t>46.320,00</t>
-  </si>
-  <si>
-    <t>1.404,92</t>
-  </si>
-  <si>
-    <t>100,80</t>
-  </si>
-  <si>
-    <t>5.714,37</t>
-  </si>
-  <si>
-    <t>62.973,20</t>
-  </si>
-  <si>
-    <t>12.600,46</t>
-  </si>
-  <si>
-    <t>146,65</t>
-  </si>
-  <si>
-    <t>571,60</t>
-  </si>
-  <si>
-    <t>7.214,19</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>1.790,00</t>
-  </si>
-  <si>
-    <t>4.615,20</t>
-  </si>
-  <si>
-    <t>22,00</t>
-  </si>
-  <si>
-    <t>29.998,78</t>
-  </si>
-  <si>
-    <t>861,60</t>
-  </si>
-  <si>
-    <t>15,00</t>
-  </si>
-  <si>
-    <t>3.057,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>2.300,00</t>
-  </si>
-  <si>
-    <t>67,25</t>
-  </si>
-  <si>
-    <t>2.700,00</t>
-  </si>
-  <si>
-    <t>4.677,40</t>
-  </si>
-  <si>
-    <t>268,00</t>
-  </si>
-  <si>
-    <t>129,60</t>
-  </si>
-  <si>
-    <t>30,00</t>
-  </si>
-  <si>
-    <t>1,22</t>
-  </si>
-  <si>
-    <t>67.500,00</t>
-  </si>
-  <si>
-    <t>103.769,60</t>
-  </si>
-  <si>
-    <t>9,00</t>
-  </si>
-  <si>
-    <t>1.817,25</t>
-  </si>
-  <si>
-    <t>325,00</t>
-  </si>
-  <si>
-    <t>149,00</t>
-  </si>
-  <si>
-    <t>225,16</t>
-  </si>
-  <si>
-    <t>192,00</t>
-  </si>
-  <si>
-    <t>10.240,00</t>
-  </si>
-  <si>
-    <t>4.235,00</t>
-  </si>
-  <si>
-    <t>2.230,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>239.309,00</t>
-  </si>
-  <si>
-    <t>238.142,20</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>580,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>1.657,50</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>3.400,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>4.400,00</t>
-  </si>
-  <si>
-    <t>99,00</t>
-  </si>
-  <si>
-    <t>170,00</t>
-  </si>
-  <si>
-    <t>225,00</t>
-  </si>
-  <si>
-    <t>1.930,00</t>
-  </si>
-  <si>
-    <t>1.182,40</t>
-  </si>
-  <si>
-    <t>29.727,68</t>
-  </si>
-  <si>
-    <t>2.690,10</t>
-  </si>
-  <si>
-    <t>546,00</t>
-  </si>
-  <si>
-    <t>65.000,00</t>
-  </si>
-  <si>
-    <t>44.000,00</t>
-  </si>
-  <si>
-    <t>878,35</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>3.978,00</t>
-  </si>
-  <si>
-    <t>3.626,00</t>
-  </si>
-  <si>
-    <t>2.155.000,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
+    <t>510.00</t>
+  </si>
+  <si>
+    <t>46320.00</t>
+  </si>
+  <si>
+    <t>1404.92</t>
+  </si>
+  <si>
+    <t>100.80</t>
+  </si>
+  <si>
+    <t>5714.37</t>
+  </si>
+  <si>
+    <t>62973.20</t>
+  </si>
+  <si>
+    <t>12600.46</t>
+  </si>
+  <si>
+    <t>146.65</t>
+  </si>
+  <si>
+    <t>571.60</t>
+  </si>
+  <si>
+    <t>7214.19</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>1790.00</t>
+  </si>
+  <si>
+    <t>4615.20</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>29998.78</t>
+  </si>
+  <si>
+    <t>861.60</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>3057.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>2300.00</t>
+  </si>
+  <si>
+    <t>67.25</t>
+  </si>
+  <si>
+    <t>2700.00</t>
+  </si>
+  <si>
+    <t>4677.40</t>
+  </si>
+  <si>
+    <t>268.00</t>
+  </si>
+  <si>
+    <t>129.60</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>67500.00</t>
+  </si>
+  <si>
+    <t>103769.60</t>
+  </si>
+  <si>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>1817.25</t>
+  </si>
+  <si>
+    <t>325.00</t>
+  </si>
+  <si>
+    <t>149.00</t>
+  </si>
+  <si>
+    <t>225.16</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>10240.00</t>
+  </si>
+  <si>
+    <t>4235.00</t>
+  </si>
+  <si>
+    <t>2230.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>239309.00</t>
+  </si>
+  <si>
+    <t>238142.20</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>580.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>1657.50</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>3400.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>4400.00</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>1930.00</t>
+  </si>
+  <si>
+    <t>1182.40</t>
+  </si>
+  <si>
+    <t>29727.68</t>
+  </si>
+  <si>
+    <t>2690.10</t>
+  </si>
+  <si>
+    <t>546.00</t>
+  </si>
+  <si>
+    <t>65000.00</t>
+  </si>
+  <si>
+    <t>44000.00</t>
+  </si>
+  <si>
+    <t>878.35</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>3978.00</t>
+  </si>
+  <si>
+    <t>3626.00</t>
+  </si>
+  <si>
+    <t>2155000.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
   </si>
 </sst>
 </file>
